--- a/PatientMatching priority.xlsx
+++ b/PatientMatching priority.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>SSN</t>
   </si>
@@ -119,7 +119,22 @@
     <t>Key</t>
   </si>
   <si>
-    <t>~=</t>
+    <t>Concern</t>
+  </si>
+  <si>
+    <t>Twins, Jr/Sr</t>
+  </si>
+  <si>
+    <t>Roommates</t>
+  </si>
+  <si>
+    <t>Jr/Sr</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>not used (danger of matching unmatched pairs)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -184,6 +205,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,15 +524,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,26 +551,29 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>30</v>
@@ -592,14 +621,14 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -622,18 +651,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
         <v>8</v>
       </c>
       <c r="M5" t="s">
@@ -648,21 +680,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -676,23 +708,32 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -702,17 +743,26 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -722,20 +772,26 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -745,16 +801,16 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" t="s">
@@ -768,10 +824,10 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">

--- a/PatientMatching priority.xlsx
+++ b/PatientMatching priority.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>SSN</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>not used (danger of matching unmatched pairs)</t>
+  </si>
+  <si>
+    <t>~*</t>
+  </si>
+  <si>
+    <t>soft equality on Last, one SSN not entered</t>
+  </si>
+  <si>
+    <t>SOFT MATCH 3</t>
+  </si>
+  <si>
+    <t>Hand-removed</t>
+  </si>
+  <si>
+    <t>blank to any</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,9 +220,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,23 +539,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -551,13 +569,13 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -572,15 +590,16 @@
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -590,14 +609,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -607,24 +626,24 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
       <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -639,21 +658,21 @@
       <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
       <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -668,21 +687,21 @@
       <c r="K5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
       <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -697,21 +716,21 @@
       <c r="K6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -726,27 +745,27 @@
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
@@ -761,22 +780,22 @@
       <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -790,18 +809,24 @@
       <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
@@ -817,17 +842,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
@@ -843,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -851,9 +876,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
